--- a/Reports/1/23Analysis.xlsx
+++ b/Reports/1/23Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -26,13 +26,19 @@
     <t>Test Case Name</t>
   </si>
   <si>
+    <t>007</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t/>
+    <t>12/12/22 12:09:59</t>
   </si>
   <si>
     <t>Not executed</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Pass</t>
@@ -111,27 +117,33 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -139,15 +151,15 @@
     </row>
     <row r="4">
       <c r="G4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="G5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -155,10 +167,10 @@
     </row>
     <row r="6">
       <c r="G6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
